--- a/Day-2 Testing/UserStories 3 - Day 2.xlsx
+++ b/Day-2 Testing/UserStories 3 - Day 2.xlsx
@@ -77,7 +77,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the valid username and password
 5.Click on the Login Button</t>
@@ -103,7 +103,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the invalid username and password
 5.Click on the Login Button</t>
@@ -124,7 +124,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the invalid username 
 5.Click on the Login Button</t>
@@ -145,7 +145,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the invalid password 
 5.Click on the Login Button</t>
@@ -517,7 +517,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="26.13"/>
     <col customWidth="1" min="2" max="2" width="51.25"/>
-    <col customWidth="1" min="3" max="3" width="47.88"/>
+    <col customWidth="1" min="3" max="3" width="39.63"/>
     <col customWidth="1" min="4" max="4" width="27.0"/>
     <col customWidth="1" min="5" max="5" width="49.88"/>
     <col customWidth="1" min="6" max="6" width="21.0"/>
